--- a/medicine/Pharmacie/Mepolizumab/Mepolizumab.xlsx
+++ b/medicine/Pharmacie/Mepolizumab/Mepolizumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mepolizumab est un anticorps monoclonal humanisé dirigé contre l'interleukine 5 (IL-5)
 Vendu comme biomédicament sous le nom de Nucala (fabriqué et vendu par GlaxoSmithKline).
@@ -512,7 +524,9 @@
           <t>Intérêts potentiels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -543,10 +557,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est utilisé ou a été utilisé dans les pathologies suivantes :
-Maladie pulmonaire obstructive chronique (MPOC), en particulier pour l'asthme sévère et réfractaire avec éosinophilie où il a permis de réduire les poussées et d'améliorer la qualité de vie des adultes[1] et des enfants-adolescents[2]. Il diminue les besoins en corticoïde dans ces cas[3]. par contre, il ne semble pas améliorer les paramètres ventilatoires de ces asthmatiques[4].
+Maladie pulmonaire obstructive chronique (MPOC), en particulier pour l'asthme sévère et réfractaire avec éosinophilie où il a permis de réduire les poussées et d'améliorer la qualité de vie des adultes et des enfants-adolescents. Il diminue les besoins en corticoïde dans ces cas. par contre, il ne semble pas améliorer les paramètres ventilatoires de ces asthmatiques.
 dermatite atopique ;
 syndrome d'éosinophilie idiopathique (SEI ou HES) ;
 œsophagite éosinophile (EoE) ;
